--- a/assets/televerssements/Tableau de suivi de veille technologique BTS SIO NAKHIL.xlsx
+++ b/assets/televerssements/Tableau de suivi de veille technologique BTS SIO NAKHIL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_fizaine\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\veille_technologique\assets\televerssements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_D95623F6DC9DAA3FF320B8AD873C2A6836394690" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743E5277-6110-4370-BF11-848A8B7F66BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,36 +18,21 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$I$33</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>VEILLE TECHNOLOGIQUE - BTS SIO</t>
   </si>
   <si>
-    <t>NOM Prénom / Classe :</t>
-  </si>
-  <si>
-    <t>THEME CHOISI:</t>
-  </si>
-  <si>
     <t>Outil d'organisation de la veille choisi:</t>
   </si>
   <si>
@@ -63,77 +48,77 @@
     <t xml:space="preserve"> 06/10/2020</t>
   </si>
   <si>
-    <t>Phishing : il pensait avoir tout sécurisé</t>
-  </si>
-  <si>
-    <t>La protection informatique d'une entreprise est un processus continu qui doit être régulièrement entretenu, notamment avec les mises à jour. Sans aide, une cyberattaque engendre souvent la panique.</t>
-  </si>
-  <si>
-    <t>Il pensait être trop petit pour être victime d'une cyberattaque</t>
-  </si>
-  <si>
-    <t>Une entreprise n'a pas besoin d'être ciblée pour être victime d'un ransomware. Que ladite entreprise soit petite, moyenne ou grande, les conséquences d'une telle attaque peuvent être dramatiques, surtout si l'on n'est pas équipé pour y répondre.</t>
-  </si>
-  <si>
-    <t>Déployer une cybersécurité adaptée au télétravail</t>
-  </si>
-  <si>
-    <t>Le télétravail s'est généralisé avec le Covid, et les entreprises sont désormais confrontées à de nouveaux risques qu'elles ne maîtrisent pas.</t>
-  </si>
-  <si>
-    <t>Comment faire face à une attaque de Phishing</t>
-  </si>
-  <si>
     <t>Le phishing, ou hameçonnage, est une technique de fraude en ligne qui existe depuis plusieurs décennies mais continue de faire des ravages, y compris dans les entreprises. Comment s'en prémunir ? Nos conseils.</t>
   </si>
   <si>
-    <t>Comparatif des VPN</t>
-  </si>
-  <si>
-    <t>Quels critères retenir entre le niveau de chiffrement, la vitesse de connexion et la tarification ? Tour d'horizon de six offres de réseau privé virtuel.</t>
-  </si>
-  <si>
     <t>La stratégie cloud des moyennes et grandes entreprises chamboulée par le Covid-19</t>
   </si>
   <si>
     <t>Le recours à Microsoft Teams explose tout comme la téléphonie en mode cloud. Quant aux offres SaaS de CRM et d'ERP, elles affichent des tendances divergentes, selon la dernière enquête Club Décision DSI / JDN.</t>
   </si>
   <si>
-    <t>Le cloud, grand gagnant du Covid-19</t>
-  </si>
-  <si>
-    <t>Au deuxième trimestre 2020, les dépenses en matière de cloud progressent de 3,5 milliards de dollars comparé à la période précédente. Du jamais vu.</t>
-  </si>
-  <si>
-    <t>Caméras thermiques, lasers, capteurs... Aéroports de Paris traque le coronavirus</t>
-  </si>
-  <si>
-    <t>Le groupe ADP expérimente de nouvelles manières de repérer de potentiels cas de Covid-19 et d'assurer la distanciation sociale.</t>
-  </si>
-  <si>
-    <t>L'open insuring, une fiction qui devient réalité</t>
-  </si>
-  <si>
-    <t>Ce phénomène, qui fait écho à l'open banking, commence à se matérialiser chez certains assureurs, qui y voient davantage qu'un simple relais de croissance.</t>
-  </si>
-  <si>
-    <t>Euler Hermes parie sur un cloud sans serveur et 100% as code</t>
-  </si>
-  <si>
-    <t>La société française d'assurance-crédit, filiale d'Allianz, a fait le choix du cloud d'Amazon. Pour minimiser la gestion d'infrastructure IT, elle s'oriente dès que possible vers le serverless.</t>
-  </si>
-  <si>
-    <t>Cinq bonnes pratiques pour sécuriser son site web</t>
-  </si>
-  <si>
-    <t>Indispensable pour quasiment toutes les entreprises quelle que soit leur taille, un site internet est la porte d'entrée de nombreuses attaques informatiques. Comment le sécuriser au maximum ?</t>
+    <t>Anne Rosencher : Le revenu universel, ultime trahison de la gauche</t>
+  </si>
+  <si>
+    <t>La robotisation va bousculer notre rapport au travail, faut-il s'y faire et développer un nouveau modèle de société ou bien corriger les imperfections que cela implique ?</t>
+  </si>
+  <si>
+    <t>Robotique. « L’automatisation crée de l’emploi »</t>
+  </si>
+  <si>
+    <t>L'automatisation des taches détruit certes des emplois, mais cette automatisation a des externalités positives qui impliquent une hausse de main d'œuvre. Le bilan est alors positif.</t>
+  </si>
+  <si>
+    <t>La France, par immobilisme a négligé la filière robotique. Elle accuse un retard dans ce domaine qui affecte énormément sa compétitivité. Les robots dans certains domaines sont plus productifs que les humains.</t>
+  </si>
+  <si>
+    <t>« Robots tueurs » : les mille questions posées par les armes autonomes</t>
+  </si>
+  <si>
+    <t>Les bénéfices qu'impliquent les robots sont systématiquements vus de manière purement comptable. Toutefois, la robotisation implique des problématiques éthique.</t>
+  </si>
+  <si>
+    <t>NOM Prénom / Classe : NAKHIL Amine SLAM 2</t>
+  </si>
+  <si>
+    <t>THEME CHOISI: Robotisation</t>
+  </si>
+  <si>
+    <t>Emploi : « Les robots sont des faux coupables idéals »</t>
+  </si>
+  <si>
+    <t>Les machines sont complémentaires du travail humain. Le fort taux de chomage est imputable au manque de compétitivité et de demande, la robotisation améliores ces deux variables. L'automatisation va de pair avec le plein-emploi et la prospérité.</t>
+  </si>
+  <si>
+    <t>La baisse des impôts de production visera « particulièrement » les industries</t>
+  </si>
+  <si>
+    <t>Miser sur la compétitivité peut aider aux relocalisations et donc sur l'emploi. Notre retard sur la robotisation a fais fuir les industriels qui peuvent revenir par le meme biais.</t>
+  </si>
+  <si>
+    <t>Tesla : les leçons d'une robotisation à outrance</t>
+  </si>
+  <si>
+    <t>La robotisation ne remplace par le travail humail, il y a une complémentarité entre eux. Et la productivité engendrée par les robotos implique plus d'emploi car les robots et les humains travaillent de concert.</t>
+  </si>
+  <si>
+    <t>Le robot, coupable idéal</t>
+  </si>
+  <si>
+    <t>La montée du taux de chomage depuis les années 1980 n'est pas due à la robotisation mais aux politiques d'austérités et de la vague néolibérale.</t>
+  </si>
+  <si>
+    <t>Faut-il que les robots et les IA payent des cotisations sociales ?</t>
+  </si>
+  <si>
+    <t>Les robots travaillent pour nous les humains à la demande. Si les richesses induites sont bien redistrubées, cela peut etre bénéfique pour l'humanité.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +151,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -281,6 +272,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -288,15 +285,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -308,10 +296,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -596,421 +587,426 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="9" max="9" width="254.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="3" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="3" t="s">
+      <c r="B8" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="7" t="s">
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>44095</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>44091</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>44091</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="13" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>44084</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>44096</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>44071</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>44109</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>44119</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>44082</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>44214</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="14">
-        <v>44095</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="14">
-        <v>44091</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="14">
-        <v>44091</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="14">
-        <v>44084</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="14">
-        <v>44096</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="14">
-        <v>44071</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="14">
-        <v>44109</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="14">
-        <v>44119</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="14">
-        <v>43735</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="14">
-        <v>44091</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="13"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="13"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="13"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="13"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="13"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="13"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="13"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="13"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="13"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="13"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="E15:I15"/>
@@ -1027,29 +1023,23 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/assets/televerssements/Tableau de suivi de veille technologique BTS SIO NAKHIL.xlsx
+++ b/assets/televerssements/Tableau de suivi de veille technologique BTS SIO NAKHIL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\veille_technologique\assets\televerssements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743E5277-6110-4370-BF11-848A8B7F66BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A7DF48-BACC-4E3C-973E-F3FF31ECAC4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$I$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$I$34</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>VEILLE TECHNOLOGIQUE - BTS SIO</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>Les robots travaillent pour nous les humains à la demande. Si les richesses induites sont bien redistrubées, cela peut etre bénéfique pour l'humanité.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22/03/2020</t>
+  </si>
+  <si>
+    <t>Le paradoxe de Moravec : un espoir pour l'avenir du travail</t>
+  </si>
+  <si>
+    <t>Les robots ne maitrisent pas spontannément des taches très évidentes pour l'Homme mais sont très efficaces pour les tâches difficiles pour l'Homme,  cela constitue une opportunité d'exploiter les robots sans entrer dans une logique malthusienne</t>
   </si>
 </sst>
 </file>
@@ -287,6 +296,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -294,15 +312,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -585,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:I27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,17 +609,17 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -631,30 +640,30 @@
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -662,16 +671,16 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>44095</v>
+      <c r="A10" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -680,15 +689,15 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>44091</v>
+        <v>44095</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -700,12 +709,12 @@
         <v>44091</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -714,15 +723,15 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>44084</v>
+        <v>44091</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -731,15 +740,15 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>44096</v>
+        <v>44084</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="6" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -748,15 +757,15 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>44071</v>
+        <v>44096</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -765,15 +774,15 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>44109</v>
+        <v>44071</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -782,13 +791,15 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>44119</v>
-      </c>
-      <c r="B17" s="6"/>
+        <v>44109</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -797,15 +808,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>44082</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>44119</v>
+      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -814,15 +823,15 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>44214</v>
+        <v>44082</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -830,11 +839,17 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="5">
+        <v>44214</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -940,7 +955,7 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -983,61 +998,74 @@
       <c r="H33" s="7"/>
       <c r="I33" s="8"/>
     </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E13:I13"/>
+  <mergeCells count="55">
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E16:I16"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
     <mergeCell ref="E19:I19"/>
     <mergeCell ref="E20:I20"/>
     <mergeCell ref="E21:I21"/>
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="E23:I23"/>
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E24:I24"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
